--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MEC2\Intellij-Project\mec2-mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BC0CE-5E92-4E20-AF7D-F887BCE28038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E27E5B0-6777-4DDE-B021-A9D590699338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>lang_code</t>
   </si>
@@ -42,13 +42,67 @@
     <t>eng</t>
   </si>
   <si>
-    <t>MOR</t>
-  </si>
-  <si>
     <t>globaladmin</t>
   </si>
   <si>
     <t>service-account-mosip-resident-client</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>krish</t>
+  </si>
+  <si>
+    <t>ganesh</t>
+  </si>
+  <si>
+    <t>rounak</t>
+  </si>
+  <si>
+    <t>trialblazerseee</t>
+  </si>
+  <si>
+    <t>muralitharan</t>
+  </si>
+  <si>
+    <t>iritech</t>
+  </si>
+  <si>
+    <t>suprema</t>
+  </si>
+  <si>
+    <t>partnerib01</t>
+  </si>
+  <si>
+    <t>Tech5</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>sasi</t>
+  </si>
+  <si>
+    <t>nivetha</t>
+  </si>
+  <si>
+    <t>kavya</t>
+  </si>
+  <si>
+    <t>taru</t>
+  </si>
+  <si>
+    <t>chithara</t>
+  </si>
+  <si>
+    <t>rajashreeo</t>
+  </si>
+  <si>
+    <t>rediet</t>
+  </si>
+  <si>
+    <t>radmin</t>
   </si>
 </sst>
 </file>
@@ -431,21 +485,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="32.26953125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,31 +513,311 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>110070</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>110080</v>
+      </c>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="b">
+      <c r="D14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3" t="b">
         <v>1</v>
       </c>
     </row>

--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Mosip Codebase\Chithara27-fork\MEC-PROD-Mosip-data excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BC0CE-5E92-4E20-AF7D-F887BCE28038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2D5C85-F645-4D9B-9A17-F104857282BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
   <si>
     <t>lang_code</t>
   </si>
@@ -42,13 +42,139 @@
     <t>eng</t>
   </si>
   <si>
-    <t>MOR</t>
-  </si>
-  <si>
     <t>globaladmin</t>
   </si>
   <si>
-    <t>service-account-mosip-resident-client</t>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>rediet</t>
+  </si>
+  <si>
+    <t>Service-account-mosip-resident-client</t>
+  </si>
+  <si>
+    <t>trialblazerseee</t>
+  </si>
+  <si>
+    <t>kannan</t>
+  </si>
+  <si>
+    <t>chithara</t>
+  </si>
+  <si>
+    <t>ganesh</t>
+  </si>
+  <si>
+    <t>rajashree</t>
+  </si>
+  <si>
+    <t>nambi</t>
+  </si>
+  <si>
+    <t>taru</t>
+  </si>
+  <si>
+    <t>muralitharan</t>
+  </si>
+  <si>
+    <t>lokesh</t>
+  </si>
+  <si>
+    <t>nivetha</t>
+  </si>
+  <si>
+    <t>aditya</t>
+  </si>
+  <si>
+    <t>kavya</t>
+  </si>
+  <si>
+    <t>chithara27</t>
+  </si>
+  <si>
+    <t>srinivas</t>
+  </si>
+  <si>
+    <t>prasad</t>
+  </si>
+  <si>
+    <t>vishnu</t>
+  </si>
+  <si>
+    <t>KAR</t>
+  </si>
+  <si>
+    <t>nivi</t>
+  </si>
+  <si>
+    <t>shubham</t>
+  </si>
+  <si>
+    <t>paras</t>
+  </si>
+  <si>
+    <t>sachin</t>
+  </si>
+  <si>
+    <t>mike</t>
+  </si>
+  <si>
+    <t>krish</t>
+  </si>
+  <si>
+    <t>rounak</t>
+  </si>
+  <si>
+    <t>resham</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>nivetha22</t>
+  </si>
+  <si>
+    <t>anjali20</t>
+  </si>
+  <si>
+    <t>aneesh</t>
+  </si>
+  <si>
+    <t>ankushsuprema</t>
+  </si>
+  <si>
+    <t>antony</t>
+  </si>
+  <si>
+    <t>getgroup</t>
+  </si>
+  <si>
+    <t>digitalid</t>
+  </si>
+  <si>
+    <t>mantra</t>
   </si>
 </sst>
 </file>
@@ -108,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -117,6 +243,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,60 +558,1279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="32.26953125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4">
+        <v>44776.354780844908</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4">
+        <v>44776.354780844908</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4">
+        <v>44776.354780844908</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1103</v>
+      </c>
+      <c r="F5" s="4">
+        <v>44777.224554247689</v>
+      </c>
+      <c r="G5">
+        <v>1103</v>
+      </c>
+      <c r="H5" s="4">
+        <v>44777.224650706019</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
+        <v>44776.69948210648</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="4">
+        <v>44776.705010868056</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44777.403952337962</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4">
+        <v>44777.404103900466</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1103</v>
+      </c>
+      <c r="F8" s="4">
+        <v>44783.357215173608</v>
+      </c>
+      <c r="G8">
+        <v>1103</v>
+      </c>
+      <c r="H8" s="4">
+        <v>44783.357324305558</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>1702</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44785.519239131943</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4">
+        <v>44785.519716342591</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44789.591448472223</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="4">
+        <v>44789.591638981481</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1103</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44777.182873101854</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="4">
+        <v>44789.687694513887</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44790.213012511573</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4">
+        <v>44790.213118819447</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4">
+        <v>44790.537154930556</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4">
+        <v>44790.537258321761</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1103</v>
+      </c>
+      <c r="F14" s="4">
+        <v>44791.494652407404</v>
+      </c>
+      <c r="G14">
+        <v>1103</v>
+      </c>
+      <c r="H14" s="4">
+        <v>44791.495969189818</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>1122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44792.42844614583</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4">
+        <v>44792.428594189812</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4">
+        <v>44806.525851516206</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4">
+        <v>44806.526538101854</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="4">
+        <v>44811.3929078125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4">
+        <v>44811.394264247683</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>110070</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4">
+        <v>44820.34465190972</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="4">
+        <v>44820.34478738426</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44823.246821006942</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="4">
+        <v>44823.24903515046</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="4">
+        <v>44825.452079768518</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4">
+        <v>44825.452210069445</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="4">
+        <v>44826.532659166667</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="4">
+        <v>44826.532787094904</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>110080</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4">
+        <v>44776.69948210648</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="4">
+        <v>44820.34478738426</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="4">
+        <v>44911.535248761575</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="4">
+        <v>44911.539355416666</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="4">
+        <v>44921.438392581018</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="4">
+        <v>44921.485149062501</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="4">
+        <v>44922.253557349541</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="4">
+        <v>44922.253667696757</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="4">
+        <v>44777.35277391204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="4">
+        <v>44922.537970532409</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="4">
+        <v>44924.613161400463</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="4">
+        <v>44924.613337824077</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="4">
+        <v>44925.345440879631</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="4">
+        <v>44925.345547164354</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="4">
+        <v>44937.229702280092</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="4">
+        <v>44937.22984767361</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="4">
+        <v>44943.586597719906</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="4">
+        <v>44943.586708159724</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="4">
+        <v>44984.328555983797</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="4">
+        <v>44984.328655115743</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="4">
+        <v>44985.402285937504</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="4">
+        <v>44985.402365729169</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
+      <c r="F33" s="4">
+        <v>44986.343972141207</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="4">
+        <v>44986.344616967595</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="4">
+        <v>44986.451430127316</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="4">
+        <v>44986.451510243052</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="4">
+        <v>44996.499690138888</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="4">
+        <v>44996.49977884259</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="4">
+        <v>44996.500726909719</v>
+      </c>
+      <c r="G36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="4">
+        <v>44996.500804560186</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="4">
+        <v>45020.42411630787</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="4">
+        <v>45020.424494317129</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="4">
+        <v>45020.478705891204</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="4">
+        <v>45020.478828437503</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="4">
+        <v>45021.453948333336</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="4">
+        <v>45021.454147974539</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="4">
+        <v>45055.301987141203</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="4">
+        <v>45055.302264918981</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="4">
+        <v>45055.476617916669</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="4">
+        <v>45055.47688603009</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="4">
+        <v>45056.681829212961</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="4">
+        <v>45056.681901226853</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="4">
+        <v>45057.29177275463</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="4">
+        <v>45057.292029074073</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="4">
+        <v>45058.249122754627</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="4">
+        <v>45058.249182384257</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BC0CE-5E92-4E20-AF7D-F887BCE28038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD29744E-1455-470E-82FF-1CD28EA2BA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>lang_code</t>
   </si>
@@ -39,16 +39,13 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>MOR</t>
-  </si>
-  <si>
     <t>globaladmin</t>
   </si>
   <si>
-    <t>service-account-mosip-resident-client</t>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>fra</t>
   </si>
 </sst>
 </file>
@@ -431,21 +428,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="32.26953125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,31 +456,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="b">
         <v>1</v>
       </c>
     </row>
